--- a/tests/frameworks/framework_hypertension.xlsx
+++ b/tests/frameworks/framework_hypertension.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09C1A7D-BB77-4C46-8C92-93EBB3551EB5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B937AF06-B83F-7B46-A1C1-1DBA32919F58}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId5"/>
     <sheet name="Cascades" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -988,7 +988,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
   <si>
     <t>Code Name</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>Currently treated</t>
   </si>
   <si>
-    <t>dx, tx</t>
-  </si>
-  <si>
     <t>all_dx</t>
   </si>
   <si>
@@ -1134,9 +1131,6 @@
     <t>num_initiate/dx</t>
   </si>
   <si>
-    <t>num_loss</t>
-  </si>
-  <si>
     <t>num_loss/tx</t>
   </si>
   <si>
@@ -1146,9 +1140,6 @@
     <t>Annual number newly initiated onto treatment</t>
   </si>
   <si>
-    <t>Annual number lost to follow-up</t>
-  </si>
-  <si>
     <t>scr</t>
   </si>
   <si>
@@ -1164,12 +1155,6 @@
     <t>Screened people</t>
   </si>
   <si>
-    <t>scr, dx, tx</t>
-  </si>
-  <si>
-    <t>undx, scr, dx, tx</t>
-  </si>
-  <si>
     <t>num_screen</t>
   </si>
   <si>
@@ -1183,6 +1168,48 @@
   </si>
   <si>
     <t>num_diag/scr</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Controlled</t>
+  </si>
+  <si>
+    <t>all_con</t>
+  </si>
+  <si>
+    <t>undx, scr, dx, tx, con</t>
+  </si>
+  <si>
+    <t>scr, dx, tx, con</t>
+  </si>
+  <si>
+    <t>dx, tx, con</t>
+  </si>
+  <si>
+    <t>tx, con</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>fail_rate</t>
+  </si>
+  <si>
+    <t>Treatment failure rate</t>
+  </si>
+  <si>
+    <t>Blood pressure controlled</t>
+  </si>
+  <si>
+    <t>Time after initiating treatment to achieve BP control (years)</t>
+  </si>
+  <si>
+    <t>cont_rate</t>
+  </si>
+  <si>
+    <t>Prevalent</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1217,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1247,7 +1274,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1264,7 +1291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1615,61 +1642,61 @@
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1681,24 +1708,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,13 +1745,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1748,12 +1775,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1772,7 +1799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1796,7 +1823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1820,12 +1847,36 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1836,15 +1887,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1861,26 +1912,30 @@
         <f>Compartments!$A$5</f>
         <v>tx</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="str">
+        <f>Compartments!$A$6</f>
+        <v>con</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1889,13 +1944,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="str">
+        <f>Compartments!$A$6</f>
+        <v>con</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1905,21 +1975,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1936,21 +2006,21 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1959,21 +2029,21 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1982,21 +2052,21 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2005,21 +2075,21 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2028,15 +2098,38 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2047,27 +2140,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,21 +2189,21 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -2126,18 +2219,18 @@
         <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
@@ -2147,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -2158,15 +2251,15 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -2182,18 +2275,18 @@
         <v>7</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
@@ -2203,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -2214,15 +2307,15 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2">
@@ -2238,18 +2331,18 @@
         <v>7</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2">
@@ -2259,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
@@ -2270,76 +2363,98 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.2</v>
+      </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2350,7 +2465,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2361,7 +2476,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2372,7 +2487,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2383,7 +2498,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2394,7 +2509,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2405,7 +2520,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2416,7 +2531,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2427,7 +2542,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2438,7 +2553,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2449,23 +2564,12 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J10 H2:I21" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I20 J2:J10" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2477,56 +2581,64 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_hypertension.xlsx
+++ b/tests/frameworks/framework_hypertension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B937AF06-B83F-7B46-A1C1-1DBA32919F58}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A95ADB0-2501-6E43-829F-6F0E9BDFACD4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
@@ -988,7 +988,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
   <si>
     <t>Code Name</t>
   </si>
@@ -1129,9 +1129,6 @@
   </si>
   <si>
     <t>num_initiate/dx</t>
-  </si>
-  <si>
-    <t>num_loss/tx</t>
   </si>
   <si>
     <t>Annual number of new diagnoses</t>
@@ -1777,10 +1774,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1849,10 +1846,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1923,7 +1920,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1953,7 +1950,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1965,7 +1962,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2017,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2037,13 +2034,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2066,7 +2063,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2089,7 +2086,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2106,13 +2103,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2142,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2197,10 +2194,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -2224,10 +2221,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2240,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -2256,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -2296,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -2312,7 +2309,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -2380,9 +2377,7 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2396,13 +2391,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2">
         <v>0.2</v>
@@ -2425,10 +2420,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
@@ -2583,7 +2578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2603,7 +2598,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -2611,10 +2606,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2635,10 +2630,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_hypertension.xlsx
+++ b/tests/frameworks/framework_hypertension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A95ADB0-2501-6E43-829F-6F0E9BDFACD4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D53636B-A91E-A241-9540-29728CF1DE0E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
@@ -910,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
       <text>
         <r>
           <rPr>
@@ -988,7 +988,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>Code Name</t>
   </si>
@@ -1105,9 +1105,6 @@
   </si>
   <si>
     <t>Databook Page</t>
-  </si>
-  <si>
-    <t>Export</t>
   </si>
   <si>
     <t>number</t>
@@ -1635,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093950AA-F119-3042-A36F-82A5E11AC40D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
@@ -1705,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1722,7 +1719,7 @@
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,11 +1741,8 @@
       <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1768,16 +1762,13 @@
         <v>7</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1792,11 +1783,8 @@
         <v>7</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1816,11 +1804,8 @@
         <v>7</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1840,16 +1825,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1864,9 +1846,6 @@
         <v>7</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1920,7 +1899,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1929,7 +1908,7 @@
         <v>scr</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1950,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1962,7 +1941,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1972,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1986,7 +1965,7 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2005,11 +1984,8 @@
       <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -2017,7 +1993,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2028,19 +2004,16 @@
       <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2051,11 +2024,8 @@
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -2063,7 +2033,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2074,11 +2044,8 @@
       <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -2086,7 +2053,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2097,19 +2064,16 @@
       <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2119,9 +2083,6 @@
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2137,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2154,10 +2115,10 @@
     <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2186,21 +2147,18 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -2213,18 +2171,15 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2237,26 +2192,23 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -2269,18 +2221,15 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
@@ -2293,26 +2242,23 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2">
@@ -2325,18 +2271,15 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -2349,18 +2292,15 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2383,21 +2323,18 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2">
         <v>0.2</v>
@@ -2412,18 +2349,15 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>31</v>
@@ -2443,13 +2377,10 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2460,7 +2391,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2471,7 +2402,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2482,7 +2413,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2493,7 +2424,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2504,7 +2435,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2561,7 +2492,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I20 J2:J10" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I20" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -2598,7 +2529,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -2606,10 +2537,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2630,10 +2561,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_hypertension.xlsx
+++ b/tests/frameworks/framework_hypertension.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D53636B-A91E-A241-9540-29728CF1DE0E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4D5F05-E2D8-41AA-B1FA-53800FD498A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId5"/>
     <sheet name="Cascades" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -1211,7 +1211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1268,7 +1268,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1285,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1632,17 +1632,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093950AA-F119-3042-A36F-82A5E11AC40D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1658,39 +1658,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1705,21 +1705,21 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G6" sqref="F2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1758,12 +1758,10 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1779,12 +1777,10 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1800,12 +1796,10 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1821,12 +1815,10 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1842,9 +1834,7 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
   </sheetData>
@@ -1869,9 +1859,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1893,7 +1883,7 @@
         <v>con</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1902,7 +1892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
@@ -1911,7 +1901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1920,7 +1910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1932,7 +1922,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>con</v>
@@ -1957,15 +1947,15 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +1975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -2005,7 +1995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -2025,7 +2015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -2045,7 +2035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -2065,7 +2055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -2100,25 +2090,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -2174,7 +2164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -2197,10 +2187,12 @@
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -2224,7 +2216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -2247,10 +2239,12 @@
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -2274,7 +2268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2297,10 +2291,12 @@
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2321,12 +2317,14 @@
       <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -2352,7 +2350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
@@ -2375,12 +2373,14 @@
       <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2391,7 +2391,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2402,7 +2402,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2413,7 +2413,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2424,7 +2424,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2435,7 +2435,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2446,7 +2446,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2457,7 +2457,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2468,7 +2468,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2479,7 +2479,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2513,13 +2513,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>71</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>

--- a/tests/frameworks/framework_hypertension.xlsx
+++ b/tests/frameworks/framework_hypertension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4D5F05-E2D8-41AA-B1FA-53800FD498A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CD4F68-69C6-4105-8C8C-E2B0483D7D5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,30 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>during model calibration processes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{1463AD83-63D4-EC46-A82A-37905E1D406B}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1463AD83-63D4-EC46-A82A-37905E1D406B}">
       <text>
         <r>
           <rPr>
@@ -501,21 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column marks whether characteristic size data can be rescaled
-during model calibration processes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A922DFF6-C9D0-AC4E-B73F-8ED95E92610A}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A922DFF6-C9D0-AC4E-B73F-8ED95E92610A}">
       <text>
         <r>
           <rPr>
@@ -896,21 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column marks whether parameter data can be rescaled
-during model calibration processes.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
       <text>
         <r>
           <rPr>
@@ -988,7 +937,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>Code Name</t>
   </si>
@@ -1008,9 +957,6 @@
     <t>Setup Weight</t>
   </si>
   <si>
-    <t>Can Calibrate</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -1035,9 +981,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Is Impact</t>
-  </si>
-  <si>
     <t>Undiagnosed</t>
   </si>
   <si>
@@ -1204,6 +1147,9 @@
   </si>
   <si>
     <t>Prevalent</t>
+  </si>
+  <si>
+    <t>Targetable</t>
   </si>
 </sst>
 </file>
@@ -1644,18 +1590,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="G6" sqref="F2:G6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,11 +1661,10 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1736,114 +1681,103 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"n,y"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0100-000003000000}">
-      <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1889,7 +1823,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,7 +1832,7 @@
         <v>scr</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,7 +1841,7 @@
         <v>dx</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,10 +1850,10 @@
         <v>tx</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,10 +1862,10 @@
         <v>con</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1941,21 +1875,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,124 +1896,101 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"y,n"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2088,27 +1998,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2116,39 +2025,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -2157,22 +2063,21 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
@@ -2182,25 +2087,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -2209,22 +2111,21 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
@@ -2234,25 +2135,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2">
@@ -2261,22 +2159,21 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2">
@@ -2286,25 +2183,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -2315,24 +2209,21 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2">
         <v>0.2</v>
@@ -2343,22 +2234,21 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>0.16</v>
@@ -2371,16 +2261,13 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2389,9 +2276,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2400,9 +2286,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2411,9 +2296,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2422,9 +2306,8 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2433,9 +2316,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2444,9 +2326,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2455,9 +2336,8 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2466,9 +2346,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2477,9 +2356,8 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2488,11 +2366,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I20" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H20" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -2521,50 +2398,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_hypertension.xlsx
+++ b/tests/frameworks/framework_hypertension.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CD4F68-69C6-4105-8C8C-E2B0483D7D5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B74366-C623-4136-8027-971364C3ED2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,9 +1068,6 @@
     <t>Initiation rate</t>
   </si>
   <si>
-    <t>num_initiate/dx</t>
-  </si>
-  <si>
     <t>Annual number of new diagnoses</t>
   </si>
   <si>
@@ -1101,12 +1098,6 @@
     <t>Screening rate</t>
   </si>
   <si>
-    <t>num_screen/undx</t>
-  </si>
-  <si>
-    <t>num_diag/scr</t>
-  </si>
-  <si>
     <t>con</t>
   </si>
   <si>
@@ -1150,6 +1141,15 @@
   </si>
   <si>
     <t>Targetable</t>
+  </si>
+  <si>
+    <t>num_screen/max(undx,num_screen)</t>
+  </si>
+  <si>
+    <t>num_diag/max(scr,num_diag)</t>
+  </si>
+  <si>
+    <t>num_initiate/max(dx,num_initiate)</t>
   </si>
 </sst>
 </file>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1823,7 +1823,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,7 +1865,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1913,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2012,7 @@
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2040,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>36</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>7</v>
@@ -2099,7 +2099,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>7</v>
@@ -2147,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>37</v>
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2">
         <v>0.2</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
@@ -2414,10 +2414,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,10 +2438,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_hypertension.xlsx
+++ b/tests/frameworks/framework_hypertension.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B74366-C623-4136-8027-971364C3ED2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46070319-2482-A943-AA89-838DCF0291CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
-    <sheet name="Compartments" sheetId="2" r:id="rId2"/>
-    <sheet name="Transitions" sheetId="3" r:id="rId3"/>
-    <sheet name="Characteristics" sheetId="4" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="6" r:id="rId5"/>
-    <sheet name="Cascades" sheetId="7" r:id="rId6"/>
+    <sheet name="About" sheetId="9" r:id="rId1"/>
+    <sheet name="Databook Pages" sheetId="8" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="2" r:id="rId3"/>
+    <sheet name="Transitions" sheetId="3" r:id="rId4"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -937,7 +938,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>Code Name</t>
   </si>
@@ -1150,6 +1151,63 @@
   </si>
   <si>
     <t>num_initiate/max(dx,num_initiate)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Use this file to specify the structure of your model. Any extra sheets will be ignored, so you can include other information in them</t>
+  </si>
+  <si>
+    <t>Page Overview</t>
+  </si>
+  <si>
+    <t>Databook Pages</t>
+  </si>
+  <si>
+    <t>Specify which worksheets will be present in the databook</t>
+  </si>
+  <si>
+    <t>Compartments</t>
+  </si>
+  <si>
+    <t>Specify the states that an individual can be in - an individual is only ever in one compartment at a time</t>
+  </si>
+  <si>
+    <t>Transitions</t>
+  </si>
+  <si>
+    <t>Specify which transitions between compartments are possible</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
+  </si>
+  <si>
+    <t>Specify groups of people (e.g. groups of compartments) for data entry</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Define how to compute the flows between compartments</t>
+  </si>
+  <si>
+    <t>Cascades</t>
+  </si>
+  <si>
+    <t>Use the Cascades sheet to define the cascade if it is more complex than just all characteristics in sequence</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Framework for a hypertension model. Note that this does not include vital dynamics or new cases</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1214,9 +1272,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1231,11 +1289,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1575,6 +1636,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD26B0-D56D-F245-BAAC-C109C33D0DDE}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093950AA-F119-3042-A36F-82A5E11AC40D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1582,13 +1745,13 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1596,7 +1759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1604,39 +1767,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1646,7 +1809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1654,17 +1817,17 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1702,7 +1865,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1720,7 +1883,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1738,7 +1901,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1756,7 +1919,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -1785,7 +1948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1793,9 +1956,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1817,7 +1980,7 @@
         <v>con</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1826,7 +1989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>scr</v>
@@ -1835,7 +1998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>dx</v>
@@ -1844,7 +2007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1856,7 +2019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>con</v>
@@ -1873,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1881,14 +2044,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +2068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1922,7 +2085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1939,7 +2102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1956,7 +2119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1973,7 +2136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -1996,28 +2159,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +2209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -2069,7 +2232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -2094,7 +2257,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2117,7 +2280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2142,7 +2305,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -2165,7 +2328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2190,7 +2353,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2215,7 +2378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
@@ -2240,7 +2403,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -2267,7 +2430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2277,7 +2440,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2287,7 +2450,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2297,7 +2460,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2307,7 +2470,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2317,7 +2480,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2327,7 +2490,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2337,7 +2500,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2347,7 +2510,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2357,7 +2520,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2382,21 +2545,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -2404,7 +2567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
@@ -2412,7 +2575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -2420,7 +2583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +2591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2436,7 +2599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
